--- a/data/AgEvidence_subsupers_info.xlsx
+++ b/data/AgEvidence_subsupers_info.xlsx
@@ -1,16 +1,16 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="20361"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="10713"/>
   <workbookPr defaultThemeVersion="166925"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\LWA\Desktop\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/stephen.wood/Box Sync/Work/The Nature Conservancy/Global Soils/AgEvidence/code-and-data/data/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="8_{3EE7AE40-F209-4B39-9633-88D5A746133F}" xr6:coauthVersionLast="36" xr6:coauthVersionMax="36" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{0CB42F63-EC50-C344-A9EC-F28DB5E4F6E7}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="0" yWindow="0" windowWidth="18970" windowHeight="5090" xr2:uid="{FB5CB174-78F5-40DF-959D-AD094DA58A1B}"/>
+    <workbookView xWindow="0" yWindow="460" windowWidth="18980" windowHeight="14600" xr2:uid="{FB5CB174-78F5-40DF-959D-AD094DA58A1B}"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
@@ -25,7 +25,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="43" uniqueCount="37">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="55" uniqueCount="49">
   <si>
     <t>rv</t>
   </si>
@@ -136,6 +136,42 @@
   </si>
   <si>
     <t>should be blanks - NA was added sometime during all the processing</t>
+  </si>
+  <si>
+    <t>NH~4~-N</t>
+  </si>
+  <si>
+    <t>NH~4~</t>
+  </si>
+  <si>
+    <t>NO~3~-N</t>
+  </si>
+  <si>
+    <t>CO~2~-C</t>
+  </si>
+  <si>
+    <t>NO~3~</t>
+  </si>
+  <si>
+    <t>N~2~O</t>
+  </si>
+  <si>
+    <t>N~2~O-N</t>
+  </si>
+  <si>
+    <t>(NO~3~+NH~4~)-N</t>
+  </si>
+  <si>
+    <t>NO~3~ + NH~4~-N</t>
+  </si>
+  <si>
+    <t>qCO~2~</t>
+  </si>
+  <si>
+    <t>CH~4~-C</t>
+  </si>
+  <si>
+    <t>rvChange</t>
   </si>
 </sst>
 </file>
@@ -487,186 +523,225 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{16883838-82DD-4699-9A99-88C1FFA61D38}">
-  <dimension ref="B1:E21"/>
+  <dimension ref="A1:D21"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
       <pane ySplit="1" topLeftCell="A2" activePane="bottomLeft" state="frozen"/>
-      <selection pane="bottomLeft" activeCell="E13" sqref="E13"/>
+      <selection pane="bottomLeft" activeCell="B2" sqref="B2"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="14.5" x14ac:dyDescent="0.35"/>
+  <sheetFormatPr baseColWidth="10" defaultColWidth="8.83203125" defaultRowHeight="15" x14ac:dyDescent="0.2"/>
   <cols>
-    <col min="4" max="4" width="23.26953125" customWidth="1"/>
+    <col min="1" max="1" width="12.6640625" bestFit="1" customWidth="1"/>
+    <col min="2" max="2" width="12.6640625" customWidth="1"/>
+    <col min="3" max="3" width="37.5" bestFit="1" customWidth="1"/>
+    <col min="4" max="4" width="83" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="2:5" x14ac:dyDescent="0.35">
+    <row r="1" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="A1" t="s">
+        <v>0</v>
+      </c>
       <c r="B1" t="s">
-        <v>0</v>
+        <v>48</v>
+      </c>
+      <c r="C1" t="s">
+        <v>10</v>
       </c>
       <c r="D1" t="s">
-        <v>10</v>
-      </c>
-      <c r="E1" t="s">
         <v>31</v>
       </c>
     </row>
-    <row r="2" spans="2:5" x14ac:dyDescent="0.35">
+    <row r="2" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="A2" t="s">
+        <v>1</v>
+      </c>
       <c r="B2" t="s">
+        <v>37</v>
+      </c>
+      <c r="C2" t="s">
+        <v>11</v>
+      </c>
+    </row>
+    <row r="3" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="A3" t="s">
+        <v>2</v>
+      </c>
+      <c r="B3" t="s">
+        <v>38</v>
+      </c>
+      <c r="C3" t="s">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="4" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="A4" t="s">
+        <v>3</v>
+      </c>
+      <c r="B4" t="s">
+        <v>39</v>
+      </c>
+      <c r="C4" t="s">
+        <v>12</v>
+      </c>
+      <c r="D4" t="s">
+        <v>13</v>
+      </c>
+    </row>
+    <row r="5" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="A5" t="s">
+        <v>4</v>
+      </c>
+      <c r="B5" t="s">
+        <v>40</v>
+      </c>
+      <c r="C5" t="s">
+        <v>14</v>
+      </c>
+      <c r="D5" t="s">
+        <v>15</v>
+      </c>
+    </row>
+    <row r="6" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="A6" t="s">
+        <v>5</v>
+      </c>
+      <c r="B6" t="s">
+        <v>41</v>
+      </c>
+      <c r="C6" t="s">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="7" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="A7" t="s">
+        <v>6</v>
+      </c>
+      <c r="B7" t="s">
+        <v>42</v>
+      </c>
+      <c r="C7" t="s">
+        <v>32</v>
+      </c>
+      <c r="D7" t="s">
+        <v>33</v>
+      </c>
+    </row>
+    <row r="8" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="A8" t="s">
+        <v>7</v>
+      </c>
+      <c r="B8" t="s">
+        <v>43</v>
+      </c>
+      <c r="C8" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="9" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="A9" t="s">
+        <v>8</v>
+      </c>
+      <c r="B9" t="s">
+        <v>44</v>
+      </c>
+      <c r="C9" t="s">
+        <v>16</v>
+      </c>
+    </row>
+    <row r="10" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="A10" t="s">
+        <v>9</v>
+      </c>
+      <c r="B10" t="s">
+        <v>45</v>
+      </c>
+      <c r="C10" t="s">
+        <v>17</v>
+      </c>
+    </row>
+    <row r="11" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="A11" t="s">
+        <v>28</v>
+      </c>
+      <c r="B11" t="s">
+        <v>46</v>
+      </c>
+      <c r="C11" t="s">
+        <v>18</v>
+      </c>
+    </row>
+    <row r="12" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="A12" t="s">
+        <v>29</v>
+      </c>
+      <c r="B12" t="s">
+        <v>47</v>
+      </c>
+      <c r="C12" t="s">
+        <v>19</v>
+      </c>
+      <c r="D12" t="s">
+        <v>20</v>
+      </c>
+    </row>
+    <row r="13" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="C13" t="s">
+        <v>21</v>
+      </c>
+      <c r="D13" t="s">
+        <v>22</v>
+      </c>
+    </row>
+    <row r="14" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="C14" t="s">
+        <v>23</v>
+      </c>
+      <c r="D14" t="s">
+        <v>24</v>
+      </c>
+    </row>
+    <row r="15" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="C15" t="s">
+        <v>25</v>
+      </c>
+      <c r="D15" t="s">
+        <v>26</v>
+      </c>
+    </row>
+    <row r="16" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="C16" t="s">
+        <v>34</v>
+      </c>
+      <c r="D16" t="s">
+        <v>35</v>
+      </c>
+    </row>
+    <row r="17" spans="3:4" x14ac:dyDescent="0.2">
+      <c r="C17" t="s">
+        <v>27</v>
+      </c>
+    </row>
+    <row r="18" spans="3:4" x14ac:dyDescent="0.2">
+      <c r="C18" t="s">
+        <v>29</v>
+      </c>
+    </row>
+    <row r="19" spans="3:4" x14ac:dyDescent="0.2">
+      <c r="C19" t="s">
         <v>1</v>
       </c>
-      <c r="D2" t="s">
-        <v>11</v>
-      </c>
-    </row>
-    <row r="3" spans="2:5" x14ac:dyDescent="0.35">
-      <c r="B3" t="s">
-        <v>2</v>
-      </c>
-      <c r="D3" t="s">
-        <v>4</v>
-      </c>
-    </row>
-    <row r="4" spans="2:5" x14ac:dyDescent="0.35">
-      <c r="B4" t="s">
-        <v>3</v>
-      </c>
-      <c r="D4" t="s">
-        <v>12</v>
-      </c>
-      <c r="E4" t="s">
-        <v>13</v>
-      </c>
-    </row>
-    <row r="5" spans="2:5" x14ac:dyDescent="0.35">
-      <c r="B5" t="s">
-        <v>4</v>
-      </c>
-      <c r="D5" t="s">
-        <v>14</v>
-      </c>
-      <c r="E5" t="s">
-        <v>15</v>
-      </c>
-    </row>
-    <row r="6" spans="2:5" x14ac:dyDescent="0.35">
-      <c r="B6" t="s">
-        <v>5</v>
-      </c>
-      <c r="D6" t="s">
-        <v>7</v>
-      </c>
-    </row>
-    <row r="7" spans="2:5" x14ac:dyDescent="0.35">
-      <c r="B7" t="s">
-        <v>6</v>
-      </c>
-      <c r="D7" t="s">
-        <v>32</v>
-      </c>
-      <c r="E7" t="s">
-        <v>33</v>
-      </c>
-    </row>
-    <row r="8" spans="2:5" x14ac:dyDescent="0.35">
-      <c r="B8" t="s">
-        <v>7</v>
-      </c>
-      <c r="D8" t="s">
-        <v>3</v>
-      </c>
-    </row>
-    <row r="9" spans="2:5" x14ac:dyDescent="0.35">
-      <c r="B9" t="s">
-        <v>8</v>
-      </c>
-      <c r="D9" t="s">
+    </row>
+    <row r="20" spans="3:4" x14ac:dyDescent="0.2">
+      <c r="C20" t="s">
         <v>16</v>
       </c>
     </row>
-    <row r="10" spans="2:5" x14ac:dyDescent="0.35">
-      <c r="B10" t="s">
-        <v>9</v>
-      </c>
-      <c r="D10" t="s">
-        <v>17</v>
-      </c>
-    </row>
-    <row r="11" spans="2:5" x14ac:dyDescent="0.35">
-      <c r="B11" t="s">
-        <v>28</v>
-      </c>
-      <c r="D11" t="s">
-        <v>18</v>
-      </c>
-    </row>
-    <row r="12" spans="2:5" x14ac:dyDescent="0.35">
-      <c r="B12" t="s">
-        <v>29</v>
-      </c>
-      <c r="D12" t="s">
-        <v>19</v>
-      </c>
-      <c r="E12" t="s">
-        <v>20</v>
-      </c>
-    </row>
-    <row r="13" spans="2:5" x14ac:dyDescent="0.35">
-      <c r="D13" t="s">
-        <v>21</v>
-      </c>
-      <c r="E13" t="s">
-        <v>22</v>
-      </c>
-    </row>
-    <row r="14" spans="2:5" x14ac:dyDescent="0.35">
-      <c r="D14" t="s">
-        <v>23</v>
-      </c>
-      <c r="E14" t="s">
-        <v>24</v>
-      </c>
-    </row>
-    <row r="15" spans="2:5" x14ac:dyDescent="0.35">
-      <c r="D15" t="s">
-        <v>25</v>
-      </c>
-      <c r="E15" t="s">
-        <v>26</v>
-      </c>
-    </row>
-    <row r="16" spans="2:5" x14ac:dyDescent="0.35">
-      <c r="D16" t="s">
-        <v>34</v>
-      </c>
-      <c r="E16" t="s">
-        <v>35</v>
-      </c>
-    </row>
-    <row r="17" spans="4:5" x14ac:dyDescent="0.35">
-      <c r="D17" t="s">
-        <v>27</v>
-      </c>
-    </row>
-    <row r="18" spans="4:5" x14ac:dyDescent="0.35">
-      <c r="D18" t="s">
-        <v>29</v>
-      </c>
-    </row>
-    <row r="19" spans="4:5" x14ac:dyDescent="0.35">
-      <c r="D19" t="s">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="20" spans="4:5" x14ac:dyDescent="0.35">
-      <c r="D20" t="s">
-        <v>16</v>
-      </c>
-    </row>
-    <row r="21" spans="4:5" x14ac:dyDescent="0.35">
+    <row r="21" spans="3:4" x14ac:dyDescent="0.2">
+      <c r="C21" t="s">
+        <v>30</v>
+      </c>
       <c r="D21" t="s">
-        <v>30</v>
-      </c>
-      <c r="E21" t="s">
         <v>36</v>
       </c>
     </row>
